--- a/biology/Botanique/Flétrissement_bactérien_des_graminées/Flétrissement_bactérien_des_graminées.xlsx
+++ b/biology/Botanique/Flétrissement_bactérien_des_graminées/Flétrissement_bactérien_des_graminées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fl%C3%A9trissement_bact%C3%A9rien_des_gramin%C3%A9es</t>
+          <t>Flétrissement_bactérien_des_graminées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le flétrissement bactérien des graminées est une maladie bactérienne qui affecte diverses espèces de plantes de la famille des Poaceae (graminées), notamment des graminées fourragères, telles que Lolium multiflorum, Lolium perenne, Festuca pratensis,
-Phleum pratense et Poa pratensis, causant des pertes de rendement importantes. Cette maladie est due à une bactérie,  Xanthomonas translucens pv. graminis (Xtg)[1]  
-et est présente en Europe, aux États-Unis et en Australasie[2].
+Phleum pratense et Poa pratensis, causant des pertes de rendement importantes. Cette maladie est due à une bactérie,  Xanthomonas translucens pv. graminis (Xtg)  
+et est présente en Europe, aux États-Unis et en Australasie.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fl%C3%A9trissement_bact%C3%A9rien_des_gramin%C3%A9es</t>
+          <t>Flétrissement_bactérien_des_graminées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Xanthomonas campestris pv. graminis (Egli, Goto &amp; Schmidt 1975) Dye 1978[3].</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. graminis (Egli, Goto &amp; Schmidt 1975) Dye 1978.</t>
         </is>
       </c>
     </row>
